--- a/result_table_templates/DriftingGratingsCC.xlsx
+++ b/result_table_templates/DriftingGratingsCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregschwartz/matlab/DJ_schwartzlab/result_table_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1AEED7-7A16-3F49-A43F-80C984B8559F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5F1101-C4D3-1841-8B5C-74EBB3F75EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10360" yWindow="880" windowWidth="41120" windowHeight="24260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>Field</t>
   </si>
@@ -109,37 +109,25 @@
     <t>cell</t>
   </si>
   <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
     <t>double</t>
   </si>
   <si>
     <t>cell</t>
   </si>
   <si>
-    <t>struct</t>
+    <t>double</t>
   </si>
   <si>
     <t>cell</t>
-  </si>
-  <si>
-    <t>struct</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>double</t>
   </si>
   <si>
     <t>cell</t>
@@ -566,7 +554,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -584,7 +572,7 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -595,7 +583,7 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -606,7 +594,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -617,7 +605,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -628,7 +616,7 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -636,10 +624,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -647,10 +635,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -658,10 +646,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -669,10 +657,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -680,10 +668,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -691,10 +679,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -702,10 +690,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -713,10 +701,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -724,10 +712,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -735,10 +723,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -746,10 +734,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -757,7 +745,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -765,10 +753,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -776,10 +764,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -787,10 +775,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -798,10 +786,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -809,10 +797,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -820,10 +808,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -831,10 +819,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -842,10 +830,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/result_table_templates/DriftingGratingsCC.xlsx
+++ b/result_table_templates/DriftingGratingsCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregschwartz/matlab/DJ_schwartzlab/result_table_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5F1101-C4D3-1841-8B5C-74EBB3F75EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9D16B4-F90B-E648-A211-6CCFC2CB9462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="880" windowWidth="41120" windowHeight="24260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>Field</t>
   </si>
@@ -58,9 +58,6 @@
     <t>directions</t>
   </si>
   <si>
-    <t>entry_time</t>
-  </si>
-  <si>
     <t>example_trace_by_condition</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
   </si>
   <si>
     <t>set of directions of movement (degrees)</t>
-  </si>
-  <si>
-    <t>time the result was entered</t>
   </si>
   <si>
     <t>example trace for each condition (mV)</t>
@@ -551,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -569,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -580,10 +574,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -591,10 +585,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -602,10 +596,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -613,10 +607,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -624,10 +618,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -635,10 +629,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -646,10 +640,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -657,10 +651,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -668,10 +662,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -679,10 +673,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -690,10 +684,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -701,10 +695,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -712,10 +706,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -723,10 +717,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -734,10 +728,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -745,7 +736,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -756,7 +750,7 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -767,7 +761,7 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -775,10 +769,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -786,10 +780,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -800,7 +794,7 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -808,10 +802,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -819,21 +813,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/result_table_templates/DriftingGratingsCC.xlsx
+++ b/result_table_templates/DriftingGratingsCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregschwartz/matlab/DJ_schwartzlab/result_table_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9D16B4-F90B-E648-A211-6CCFC2CB9462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93326078-5588-3547-B289-F9374BEA3438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12120" yWindow="500" windowWidth="41120" windowHeight="24260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>Field</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>list of stimulus condtions that can vary - for plotter menus</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -548,7 +551,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -574,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -585,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
